--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17445" windowHeight="8490"/>
+    <workbookView windowWidth="24645" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>用例标题</t>
   </si>
@@ -37,10 +37,19 @@
     <t>请求数据</t>
   </si>
   <si>
+    <t>后置sql</t>
+  </si>
+  <si>
     <t>预期结果</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>考勤</t>
     </r>
     <r>
@@ -81,10 +90,16 @@
     <t>{"employeeId":"2772","verifyTime":"2022-9-2 8:21:00","deviceKey":"be:d8:a4:c9:b6:78","temperature":"37.0","imageUri":"03fffae2-1ce7-4801-a04c-0a9020bb44d9.jpeg","companyId":"88","anomaly":"0"}</t>
   </si>
   <si>
-    <t>msg':'(.*?)'</t>
+    <t>select distinct employee_id from attendance_log where employee_id=2492</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>考勤</t>
     </r>
     <r>
@@ -116,7 +131,16 @@
     <t>{"companyId":"88","searchDay":"2022-08-15"}</t>
   </si>
   <si>
+    <t>msg':'(.*?)'</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>测温</t>
     </r>
     <r>
@@ -146,6 +170,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>select distinct employee_id from attendance_log where employee_id=2494</t>
   </si>
 </sst>
 </file>
@@ -1167,24 +1194,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09523809523809" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.09523809523809" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="27.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="23.5904761904762" customWidth="1"/>
     <col min="4" max="4" width="24.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="12.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="59.4952380952381" style="1" customWidth="1"/>
-    <col min="8" max="8" width="57.7142857142857" customWidth="1"/>
+    <col min="7" max="8" width="59.4952380952381" style="1" customWidth="1"/>
+    <col min="9" max="9" width="57.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:8">
+    <row r="1" ht="20" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,86 +1236,96 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="51" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="11"/>
@@ -1297,8 +1334,9 @@
       <c r="F5" s="13"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -1306,9 +1344,10 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="15"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="14"/>
       <c r="B7" s="12"/>
       <c r="C7" s="11"/>
@@ -1316,9 +1355,10 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="15"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="14"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
@@ -1326,9 +1366,10 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="15"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="14"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
@@ -1336,9 +1377,10 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="15"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="16"/>
       <c r="B10" s="12"/>
       <c r="C10" s="16"/>
@@ -1346,9 +1388,10 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="15"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="16"/>
       <c r="B11" s="12"/>
       <c r="C11" s="16"/>
@@ -1356,9 +1399,10 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="15"/>
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
@@ -1366,9 +1410,10 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="15"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="17"/>
       <c r="B13" s="12"/>
       <c r="C13" s="17"/>
@@ -1377,8 +1422,9 @@
       <c r="F13" s="13"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="16"/>
       <c r="B14" s="12"/>
       <c r="C14" s="16"/>
@@ -1387,8 +1433,9 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="16"/>
       <c r="B15" s="12"/>
       <c r="C15" s="16"/>
@@ -1397,8 +1444,9 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="16"/>
@@ -1407,8 +1455,9 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="16"/>
       <c r="B17" s="12"/>
       <c r="C17" s="16"/>
@@ -1417,8 +1466,9 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="16"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
@@ -1427,8 +1477,9 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="16"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
@@ -1437,8 +1488,9 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="16"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
@@ -1447,14 +1499,15 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2:E3 E4:E20 E21:E65536">
+      <formula1>"get,post,put,delete,head,options,patch"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F20 F21:F65536">
       <formula1>"params,data,json"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2:E3 E4:E20 E21:E65536">
-      <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/data/case_data.xlsx
+++ b/data/case_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="9075"/>
+    <workbookView windowWidth="13935" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+  <si>
+    <r>
+      <t>编写规则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+断言类型:
+none----预期：空
+json_key-键  预期：access_token,expires_in---必须是第一级的键，否则断言失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+json_key_value-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>键值  预期：{"expires_in": "7200"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+body_regexp-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">正则表达式，找到对应的键值对  预期："access_token":"(.*?)"
+header_key_check-头部键是否存在  预期：Connection
+header_key_value_check-头部键值对是否一致  预期：{"Connection": "keep-alive"}
+response_code_check-状态码   预期：200
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>注意：不要用单引号，属性值必须用双引号，否则断言会失败</t>
+    </r>
+  </si>
   <si>
     <t>用例标题</t>
   </si>
@@ -40,21 +103,68 @@
     <t>后置sql</t>
   </si>
   <si>
+    <t>断言类型</t>
+  </si>
+  <si>
     <t>预期结果</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9.8"/>
+      <t>考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="0"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
+      <t>识别记录上传（响应键值断言）</t>
+    </r>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>{"Content-type":"application/json;charset=UTF-8"}</t>
+  </si>
+  <si>
+    <t>/api/callback/log/success</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{"employeeId":"2772","verifyTime":"2022-9-2 8:21:00","deviceKey":"be:d8:a4:c9:b6:78","temperature":"37.0","imageUri":"03fffae2-1ce7-4801-a04c-0a9020bb44d9.jpeg","companyId":"88","anomaly":"0"}</t>
+  </si>
+  <si>
+    <t>select distinct employee_id from attendance_log where employee_id=2492</t>
+  </si>
+  <si>
+    <t>json_key_value</t>
+  </si>
+  <si>
+    <t>{"code":"2000"}</t>
+  </si>
+  <si>
+    <r>
       <t>考勤</t>
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
         <charset val="0"/>
@@ -63,48 +173,116 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>识别记录上传</t>
-    </r>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>{"Content-type":"application/json;charset=UTF-8"}</t>
-  </si>
-  <si>
-    <t>/api/callback/log/success</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>{"employeeId":"2772","verifyTime":"2022-9-2 8:21:00","deviceKey":"be:d8:a4:c9:b6:78","temperature":"37.0","imageUri":"03fffae2-1ce7-4801-a04c-0a9020bb44d9.jpeg","companyId":"88","anomaly":"0"}</t>
-  </si>
-  <si>
-    <t>select distinct employee_id from attendance_log where employee_id=2492</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
+      <t>统计一天数据(键值对断言)</t>
+    </r>
+  </si>
+  <si>
+    <t>/api/attendance/statistics/oneDayData</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>{"companyId":"88","searchDay":"2022-08-15"}</t>
+  </si>
+  <si>
+    <t>body_regexp</t>
+  </si>
+  <si>
+    <t>"msg":"(.*?)"</t>
+  </si>
+  <si>
+    <r>
+      <t>测温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="0"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
+      <t>统计测温数据（空）</t>
+    </r>
+  </si>
+  <si>
+    <t>/api/robot/cewenlog/statisticTitle?companyId=85</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>select distinct employee_id from attendance_log where employee_id=2494</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>msg':'(.*?)'</t>
+  </si>
+  <si>
+    <r>
+      <t>测温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>获取测温人员（键是否存在）</t>
+    </r>
+  </si>
+  <si>
+    <t>/api/robot/cewenlog/list</t>
+  </si>
+  <si>
+    <t>{
+ "companyId": "88",
+ "searchStartTime": "2022-11-11 00:00:00",
+ "page": "1",
+ "size": "500",
+ "anomaly": "1"
+}</t>
+  </si>
+  <si>
+    <t>json_key</t>
+  </si>
+  <si>
+    <t>data,code</t>
+  </si>
+  <si>
+    <r>
       <t>考勤</t>
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
         <charset val="0"/>
@@ -113,39 +291,56 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>统计一天数据</t>
-    </r>
-  </si>
-  <si>
-    <t>/api/attendance/statistics/oneDayData</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>{"companyId":"88","searchDay":"2022-08-15"}</t>
-  </si>
-  <si>
-    <t>msg':'(.*?)'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
+      <t>统计一天数据(头部键断言)</t>
+    </r>
+  </si>
+  <si>
+    <t>header_key_check</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <r>
+      <t>考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="0"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>测温</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
+      <t>统计一天数据(头部键值对断言)</t>
+    </r>
+  </si>
+  <si>
+    <t>header_key_value_check</t>
+  </si>
+  <si>
+    <t>{"Connection":"keep-alive"}</t>
+  </si>
+  <si>
+    <r>
+      <t>考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
         <charset val="0"/>
@@ -154,25 +349,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>统计测温数据</t>
-    </r>
-  </si>
-  <si>
-    <t>/api/robot/cewenlog/statisticTitle?companyId=85</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>select distinct employee_id from attendance_log where employee_id=2494</t>
+      <t>统计一天数据(状态码断言)</t>
+    </r>
+  </si>
+  <si>
+    <t>response_code_check</t>
   </si>
 </sst>
 </file>
@@ -185,13 +371,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,12 +400,6 @@
       <color theme="1"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -229,18 +421,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -392,6 +585,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -697,51 +902,48 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,123 +953,142 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="justify" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1194,319 +1415,436 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09523809523809" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="29.4095238095238" customWidth="1"/>
     <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="23.5904761904762" customWidth="1"/>
-    <col min="4" max="4" width="24.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="56.2952380952381" customWidth="1"/>
     <col min="6" max="6" width="12.5714285714286" customWidth="1"/>
     <col min="7" max="8" width="59.4952380952381" style="1" customWidth="1"/>
-    <col min="9" max="9" width="57.7142857142857" customWidth="1"/>
+    <col min="9" max="10" width="57.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:9">
+    <row r="1" ht="231" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="51" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="3" ht="51" spans="1:10">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="I3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:10">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:10">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="89.25" spans="1:10">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
+      <c r="I6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:10">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:10">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="20"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="20"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="21"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="16"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="20"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="20"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="20"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2:E3 E4:E20 E21:E65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E7 E8 E9 E3:E4 E5:E6 E10:E21 E22:E65537">
       <formula1>"get,post,put,delete,head,options,patch"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F20 F21:F65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F8 F9 F2:F6 F10:F21 F22:F65537">
       <formula1>"params,data,json"</formula1>
     </dataValidation>
   </dataValidations>
